--- a/安排190329.xlsx
+++ b/安排190329.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1C490-127A-45C9-B691-1F4D909F9B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9D5ADB-9CC1-4193-AB8D-77659CE932B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="324" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安排" sheetId="2" r:id="rId1"/>
     <sheet name="草稿" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,63 +119,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1. 冒泡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 双向冒泡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 插入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 二分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 交换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 快排</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 双路快排</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 三路快排</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. SHELL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 键盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看谁排的快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析用基本类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeData类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据外部读取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 文件（定）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 文件（动）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>张琪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 冒泡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 双向冒泡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 插入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 二分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 交换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 快排</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 双路快排</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 三路快排</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. SHELL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨楚瀛、张琪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序规划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作详情</t>
+    <t>报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visio图片绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 随机数生成器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字提示 &amp; 交互优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体美化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序图标ICON绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主函数流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -175,110 +267,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 键盘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看谁排的快</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析用基本类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeData类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表数据外部读取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表绘制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 文件（定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 文件（动）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张琪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承扬、杨楚瀛、张琪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visio图片绘制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 随机数生成器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字提示 &amp; 交互优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体美化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序图标ICON绘制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主函数流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张承扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -288,6 +276,22 @@
   </si>
   <si>
     <t>https://github.com/Kafuziroh/HongkongJournalist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX、XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX、XXX、XX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +711,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -736,10 +740,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -750,28 +754,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -797,7 +801,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -809,7 +813,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -821,13 +825,13 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,16 +842,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -873,7 +877,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -885,97 +889,97 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,55 +997,55 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,50 +1056,50 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
